--- a/Books/An Introduction to Artificial Intelligence and Machine Learning Algorithms/content/Chapter 2 - Linear Regression/Cost Function Example.xlsx
+++ b/Books/An Introduction to Artificial Intelligence and Machine Learning Algorithms/content/Chapter 2 - Linear Regression/Cost Function Example.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brangren/Desktop/An Introduction to Artificial Intelligence and Machine Learning Algorithms/content/Linear Regression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brangren/Projects/brandon.ai/Books/An Introduction to Artificial Intelligence and Machine Learning Algorithms/content/Chapter 2 - Linear Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F8D4A-6887-8146-9B67-7F38CA8264C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572F9750-48FD-BC40-90D4-F7F1F26F5BA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="17440" xr2:uid="{C8EED2CF-7653-1B4C-BB03-DFFA71C3271C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1606,11 +1606,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.78385</cdr:x>
-      <cdr:y>0.26898</cdr:y>
+      <cdr:y>0.26711</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.88168</cdr:x>
-      <cdr:y>0.31771</cdr:y>
+      <cdr:y>0.31584</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1625,8 +1625,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8750300" y="1822450"/>
-          <a:ext cx="1092200" cy="330200"/>
+          <a:off x="8750353" y="1809761"/>
+          <a:ext cx="1092105" cy="330167"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1642,7 +1642,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t> = 11x + 3</a:t>
+            <a:t> = 3 + 11x</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800" b="1"/>
         </a:p>
@@ -1651,12 +1651,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.49943</cdr:x>
-      <cdr:y>0.77788</cdr:y>
+      <cdr:x>0.78498</cdr:x>
+      <cdr:y>0.64292</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.59727</cdr:x>
-      <cdr:y>0.82662</cdr:y>
+      <cdr:x>0.88282</cdr:x>
+      <cdr:y>0.69166</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1671,8 +1671,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5575300" y="5270500"/>
-          <a:ext cx="1092200" cy="330200"/>
+          <a:off x="8762987" y="4356087"/>
+          <a:ext cx="1092217" cy="330235"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1752,7 +1752,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t> = 5x + 1</a:t>
+            <a:t> = 1 + 5x</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800" b="1"/>
         </a:p>
@@ -2062,7 +2062,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
